--- a/spliced/walkingToRunning/2023-04-03_16-56-33/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-33/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3088633607073536</v>
+        <v>0.2057795317889</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.214792891246529</v>
+        <v>-0.6517161301269102</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9970404418503337</v>
+        <v>-1.099296086808523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4639177885724282</v>
+        <v>-0.1219321910927993</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8018534961270012</v>
+        <v>-0.182187830529549</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.026439111770656</v>
+        <v>-0.09341037564160559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2579060384958233</v>
+        <v>-0.4356265911241861</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02639614654386785</v>
+        <v>-0.6137270996483248</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.501566558349426</v>
+        <v>1.354154146480842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2057795317889</v>
+        <v>-0.06265412089301869</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6517161301269102</v>
+        <v>-0.5025855811631026</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.099296086808523</v>
+        <v>2.260356429146558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1219321910927993</v>
+        <v>-0.5034300181560275</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.182187830529549</v>
+        <v>0.6285661230000101</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09341037564160559</v>
+        <v>1.827248451186396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4356265911241861</v>
+        <v>-1.446588513327809</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6137270996483248</v>
+        <v>0.08285516464128959</v>
       </c>
       <c r="C7" t="n">
-        <v>1.354154146480842</v>
+        <v>2.005940111671997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.06265412089301869</v>
+        <v>-1.11462547393834</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5025855811631026</v>
+        <v>-0.009374656328342557</v>
       </c>
       <c r="C8" t="n">
-        <v>2.260356429146558</v>
+        <v>3.162934237863957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5034300181560275</v>
+        <v>-0.2443921377019233</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6285661230000101</v>
+        <v>1.357359671556357</v>
       </c>
       <c r="C9" t="n">
-        <v>1.827248451186396</v>
+        <v>1.662632597655804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.446588513327809</v>
+        <v>0.1685504996921994</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08285516464128959</v>
+        <v>1.441876109053465</v>
       </c>
       <c r="C10" t="n">
-        <v>2.005940111671997</v>
+        <v>-4.385711685186457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.11462547393834</v>
+        <v>0.2859861443682361</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.009374656328342557</v>
+        <v>-2.243682384490969</v>
       </c>
       <c r="C11" t="n">
-        <v>3.162934237863957</v>
+        <v>-7.90092859035586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.2443921377019233</v>
+        <v>2.782215724631054</v>
       </c>
       <c r="B12" t="n">
-        <v>1.357359671556357</v>
+        <v>-0.7535885743024512</v>
       </c>
       <c r="C12" t="n">
-        <v>1.662632597655804</v>
+        <v>-2.988133376691399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1685504996921994</v>
+        <v>-0.493949881414097</v>
       </c>
       <c r="B13" t="n">
-        <v>1.441876109053465</v>
+        <v>-2.56519750065012</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.385711685186457</v>
+        <v>-2.295662734566661</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2859861443682361</v>
+        <v>-7.865739104224518</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.243682384490969</v>
+        <v>-8.845545524049903</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.90092859035586</v>
+        <v>1.579899276175187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.782215724631054</v>
+        <v>3.534730899624699</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7535885743024512</v>
+        <v>-1.276565199218106</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.988133376691399</v>
+        <v>-3.009974456414927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.493949881414097</v>
+        <v>4.82583797559505</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.56519750065012</v>
+        <v>-4.776124651839162</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.295662734566661</v>
+        <v>-4.42023835749164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-7.865739104224518</v>
+        <v>4.827630825159058</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.845545524049903</v>
+        <v>5.732881429718808</v>
       </c>
       <c r="C17" t="n">
-        <v>1.579899276175187</v>
+        <v>1.179853487305514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.534730899624699</v>
+        <v>-2.591416502871155</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.276565199218106</v>
+        <v>-4.246028906688475</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.009974456414927</v>
+        <v>3.687537992872843</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.82583797559505</v>
+        <v>-5.452502425124007</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.776124651839162</v>
+        <v>1.563533739345819</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.42023835749164</v>
+        <v>3.775565188105511</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.827630825159058</v>
+        <v>-4.596750730421486</v>
       </c>
       <c r="B20" t="n">
-        <v>5.732881429718808</v>
+        <v>7.476189779072271</v>
       </c>
       <c r="C20" t="n">
-        <v>1.179853487305514</v>
+        <v>4.383058036245957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.591416502871155</v>
+        <v>-3.8169967372243</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.246028906688475</v>
+        <v>9.492706188341467</v>
       </c>
       <c r="C21" t="n">
-        <v>3.687537992872843</v>
+        <v>-5.739285922631989</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.77226390198965</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.99830269232031</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.008213531680217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.478664084178635</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.857492981887443</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.977369552705346</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5908174134972555</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1589468512229657</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.452448280846219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-13.21499349467632</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.594239313064515</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.02689108034458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.174701481330613</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-10.92443460371436</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.552455660046618</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.570928898958005</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-8.095582741062824</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9565766177526321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8.965150342112763</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11.8617115107978</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.040716253402757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2588674527842816</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.578985643822968</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.977885912104351</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-2.832312445815016</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.201128745497</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.380974077596895</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-4.569073584021599</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.38156421046433</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2334796684544305</v>
       </c>
     </row>
   </sheetData>
